--- a/data/trans_orig/P21D_1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D_1_R-Habitat-trans_orig.xlsx
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3806</v>
+        <v>4199</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001977025329947544</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01005063561772366</v>
+        <v>0.01108829044479343</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -1116,16 +1116,16 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3823</v>
+        <v>4561</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0009912158385694597</v>
+        <v>0.0009912158385694595</v>
       </c>
       <c r="V10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.005062054684870232</v>
+        <v>0.00603972242614683</v>
       </c>
     </row>
     <row r="11">
@@ -1155,16 +1155,16 @@
         <v>377900</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>374843</v>
+        <v>374450</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>378649</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9980229746700525</v>
+        <v>0.9980229746700524</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9899493643822763</v>
+        <v>0.9889117095552068</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1176,7 +1176,7 @@
         <v>754483</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>751409</v>
+        <v>750671</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>755232</v>
@@ -1185,7 +1185,7 @@
         <v>0.9990087841614306</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9949379453151296</v>
+        <v>0.9939602775738531</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3536</v>
+        <v>3256</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.001431120717286516</v>
+        <v>0.001431120717286517</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.007206233056397306</v>
+        <v>0.006634121576360515</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4161</v>
+        <v>3505</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0007599875054911386</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.004502781497217649</v>
+        <v>0.003793088879737711</v>
       </c>
     </row>
     <row r="14">
@@ -1356,7 +1356,7 @@
         <v>490032</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>487198</v>
+        <v>487478</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>490734</v>
@@ -1365,7 +1365,7 @@
         <v>0.9985688792827135</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9927937669436024</v>
+        <v>0.9933658784236398</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1377,16 +1377,16 @@
         <v>923391</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>919932</v>
+        <v>920588</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>924093</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9992400124945089</v>
+        <v>0.9992400124945088</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9954972185027824</v>
+        <v>0.9962069111202624</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5147</v>
+        <v>4521</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0008550102495476257</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.003032907023771108</v>
+        <v>0.002664166611066165</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5706</v>
+        <v>4462</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0004443504841885753</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.00174751727754155</v>
+        <v>0.001366514325174383</v>
       </c>
     </row>
     <row r="17">
@@ -1557,16 +1557,16 @@
         <v>1695485</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1691789</v>
+        <v>1692415</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>1696936</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9991449897504524</v>
+        <v>0.9991449897504525</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9969670929762289</v>
+        <v>0.9973358333889338</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1578,7 +1578,7 @@
         <v>3263759</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3259504</v>
+        <v>3260748</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>3265210</v>
@@ -1587,7 +1587,7 @@
         <v>0.9995556495158114</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9982524827224583</v>
+        <v>0.9986334856748259</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
